--- a/stagemaps/DinklemannLab_stagemap.xlsx
+++ b/stagemaps/DinklemannLab_stagemap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>mapsfrom</t>
   </si>
@@ -49,6 +49,27 @@
   </si>
   <si>
     <t>movement</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -84,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,12 +391,12 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,9 +407,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2">
-        <v>0</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -396,9 +418,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3">
-        <v>1</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -407,9 +429,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A4">
-        <v>2</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -418,9 +440,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5">
-        <v>3</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -429,9 +451,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A6">
-        <v>4</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -440,9 +462,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A7">
-        <v>5</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -451,9 +473,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A8">
-        <v>8</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
